--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/37_Hatay_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/37_Hatay_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA7906BF-3D6C-421B-A6DA-5EDF5B5DCC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F090CB05-29D0-4989-9F0D-C56908B012B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{1999F6DD-6AC9-4F89-A8BB-2C46C03D7B95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{C0F88623-3DDB-46BC-9DE8-9CE9216601B3}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{307AFF1A-A030-4233-AA97-59111B0599C0}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6B6DFF60-A8A6-4B2F-A294-0130F27358EF}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{AFF9BA56-AD5C-46BC-8937-70CD6D0C234B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{800C6F88-C1B3-4781-A700-F5457EEA25CA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{BCFED41C-6DDF-4F19-B713-5A5E52B8D238}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{DDE2879D-4169-4102-B545-AC614008EB55}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{C472C541-022C-4FDE-A5ED-211E25263FB8}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{49B4BB2F-1A6E-4AE0-88DD-F1A0040869DC}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8F7A24C4-D441-446A-83A9-D81E238F798E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{F6087CFA-BA45-477C-9888-900F0306E1CF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{0D51E1F4-2C9F-4C9A-983F-92C58EAAE645}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{23B2EC87-BEA7-404B-8DB9-6576318051C8}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{AB3CEAC6-4432-4D73-8673-712E962D0DE7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{71FDD5FB-2455-405D-B7C5-8E6A98421964}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4773BF91-1C98-4BD0-A0E1-2E2376F66E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0798DE4-0DED-403F-B168-B2166D03DF71}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2460,7 +2460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F995EA66-D0C3-4158-87E4-375C4856D178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB747DE6-1F35-4127-BFB4-CC89FB5A3B64}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3763,7 +3763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8947B-C67E-4B88-A563-70E66813D202}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328F21B5-F845-49ED-AC3F-E455B0CC3BB0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5054,7 +5054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD244BB-4484-4E10-B9A9-2ABC7FD02102}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82273C6A-1EE7-4B2A-A9F0-CA9190E60516}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6349,7 +6349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C75DD36-573D-4B97-BE00-D55F6C9B221D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1613D3B3-7469-4939-BAF4-551ED7B6F4A6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7628,7 +7628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBFC406-27A1-44D1-9AD3-F8ECED0D1A46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58647BF-73AA-483C-AEA5-B5264CD0A064}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
